--- a/DI_2015_FIELD.xlsx
+++ b/DI_2015_FIELD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/am3930/Box Sync/CPP project/CPP_project_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sashamushegian/Documents/Georgetown/albopictus-cpp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCB35A81-3F83-F947-A24D-B6E92BC892DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F2E4DF-9C61-8646-804D-DABF9DD6E6CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="2540" windowWidth="27640" windowHeight="16940" xr2:uid="{B421B440-C927-0949-87FF-8DBB2C1229EA}"/>
+    <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{B421B440-C927-0949-87FF-8DBB2C1229EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="6">
   <si>
     <t>Week</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>DI</t>
+  </si>
+  <si>
+    <t>WeekDate</t>
   </si>
 </sst>
 </file>
@@ -82,9 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,396 +404,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AADB9A1-FA32-6D44-8CA9-A997EFFD5497}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42191</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42198</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42205</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>5.2000000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42212</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42219</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42226</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42233</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42240</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42247</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42254</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42261</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42268</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42275</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42282</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42289</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42303</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42310</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42191</v>
       </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42198</v>
       </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42205</v>
       </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
         <v>3.7000000000000005E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42212</v>
       </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42219</v>
       </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42226</v>
       </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42233</v>
       </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42240</v>
       </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42247</v>
       </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
         <v>0.121</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42254</v>
       </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42261</v>
       </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
         <v>0.69700000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42268</v>
       </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42275</v>
       </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42282</v>
       </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42289</v>
       </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="3">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33">
         <v>0.93900000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42303</v>
       </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="3">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42310</v>
       </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="3">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35">
         <v>1</v>
       </c>
     </row>
